--- a/data/SamplingEffort_Det.xlsx
+++ b/data/SamplingEffort_Det.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Desktop/ParaSpace/data/Non vérifiés/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Library/CloudStorage/Dropbox/ParaSpace/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BE7839-4837-EB4F-9505-8F9A0C887B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8941C-EA1E-384C-AF80-6A6547079288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1280" windowWidth="27240" windowHeight="15140" xr2:uid="{0C356667-A1A9-594D-87EB-2517C961BE3C}"/>
+    <workbookView xWindow="1660" yWindow="1280" windowWidth="26760" windowHeight="15140" xr2:uid="{0C356667-A1A9-594D-87EB-2517C961BE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Transects_number" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Achigan</t>
   </si>
@@ -103,27 +104,6 @@
     </r>
   </si>
   <si>
-    <t>[2;...[</t>
-  </si>
-  <si>
-    <t>[1;2[</t>
-  </si>
-  <si>
-    <t>[0,2;1[</t>
-  </si>
-  <si>
-    <t>[0,1;0,2[</t>
-  </si>
-  <si>
-    <t>]0;0,1[</t>
-  </si>
-  <si>
-    <t>Sample size</t>
-  </si>
-  <si>
-    <t>Area classes</t>
-  </si>
-  <si>
     <t>Beaver</t>
   </si>
   <si>
@@ -142,27 +122,34 @@
     <t>Echo</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Table X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Determination of the number of transect by area classes</t>
-    </r>
+    <t>Nb_MinnowTraps</t>
+  </si>
+  <si>
+    <t>Area_classes</t>
+  </si>
+  <si>
+    <t>[2; ...[</t>
+  </si>
+  <si>
+    <t>]0; 0.1[</t>
+  </si>
+  <si>
+    <t>[0.1; 0.2[</t>
+  </si>
+  <si>
+    <t>[0.2; 1.0[</t>
+  </si>
+  <si>
+    <t>[1.0; 2.0[</t>
+  </si>
+  <si>
+    <t>Nb_Samplings</t>
+  </si>
+  <si>
+    <t>Nb_Seines</t>
+  </si>
+  <si>
+    <t>Sample_size</t>
   </si>
 </sst>
 </file>
@@ -221,10 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -238,13 +224,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -257,22 +237,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{287516BC-41D5-FF4B-AC96-45EA9E09A99C}" name="Tableau3" displayName="Tableau3" ref="A3:C8" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A3:C8" xr:uid="{B81DCFDD-5CD5-A248-8DF4-2855A753995B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{35286AAC-2EA6-8540-9FA6-2942A4DBED54}" name="Area classes" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{9685D964-6C1C-8B40-93E9-3E61DE75689E}" name="Nb_transects" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{CF911833-C715-634D-B66A-239FB3B2E046}" name="Sample size" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -566,326 +534,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4711CE4E-64E0-0B4D-803B-BC4064D42B13}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="1" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <f>C2+D2+E2</f>
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">C3+D3+E3</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.152</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.189</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.218</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.437</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5.32</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3.696E-2</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
-        <v>8.3099999999999993E-2</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1.44E-2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A54799-A270-D942-BFE0-B8E7D5E19F9F}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.218</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.437</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.696E-2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.44E-2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>